--- a/箱子整理.xlsx
+++ b/箱子整理.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,7 +62,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裤子 16+13+1 共30条；夏天 T恤 衬衫 短袖等；睡衣睡裤吊带 一包</t>
+    <t>裤子 16+13+1 共30条；夏天 T恤 衬衫 短袖等；睡衣睡裤吊带 一包；黄棉袄 压在最上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">004 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*贵重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮亮： 连衣裙（绿，绿，绿，红，藏青，披肩，护士，灰，白，黑，旗袍，+2腰带）；连衣裙（笼包*5，笼包花绿；衬衫；渐变红；迷彩围巾）；连衣裙（麻，棉），衬衫（白长袖，藏青），真丝短袖，绿紫长袖，紫、蓝长袖，黄裙子；妈妈夏天(Veino绿灰，3身）；打底衫*5，灰白棕灰高领；DOWN，席子，沙发，大床*2；小枕头*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床单一包；床单两盒；凉被2条；蚊帐一包；睡袋；灰色羽绒棉袄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*贵重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prada黑白包；大、黑包开口；宝蓝包；棕色软包；大、黑闭口包；2个Coach包（蓝、粉）；白小包，Coach钱包，黑夹包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（CROCUS蓝宝石，项链、手链；施华洛世奇，爱心，、翅膀、树；母亲节送；PHIDLYLE青金石手链；弥勒佛玉像；茗琳，蓝色梅花毛衣链；special，绿黄胸针）；（美国纪念1袋；世博记者证等1袋）；（兔子饰品，茗琳胧月；菩提子，貔貅，石榴石手链；珊瑚手钏，美金，复旦青花钥匙扣，转换插头，古筝指甲，标签扣）；（绿白水晶项链，书签、明信片等，8GU盘，小钱，贝壳项链、手链）；（新华网PAD一盒，银盘子一盒；紫色U盘；益智玩具；（眼镜盒*3，镜子白色，iPhone空盒子）；零碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚊帐（红色1.5米）；紫色运动服；各类袜子；短裤文胸、一大包毛巾；丝巾，白色皮肤衣；毛毯，裤子；U型枕，宜家枕头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛垫被；2条凉被，1条凉席毯；枕席；电热毯*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电扇；台灯；台灯2；MUJI香薰灯套装；酸奶机；接线板N个；牙刷牙膏器；紫色U型枕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸张；旧时候纸质物品；艾灸系列一盒；电蚊香；蓝色相框；艾禾美苏打+杯子；三块石头；小乌龟、香薰等石头摆件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄酒具；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,6 +541,98 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
